--- a/pkg/Result/beetle_mammal.xlsx
+++ b/pkg/Result/beetle_mammal.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="2000" windowWidth="25360" windowHeight="14220" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="0" windowWidth="25360" windowHeight="14220" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Beetle" sheetId="1" r:id="rId1"/>
     <sheet name="mammal" sheetId="2" r:id="rId2"/>
+    <sheet name="BeetleNe" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Q</t>
   </si>
@@ -80,6 +81,15 @@
   </si>
   <si>
     <t>RNA pol II</t>
+  </si>
+  <si>
+    <t>Whole seq</t>
+  </si>
+  <si>
+    <t>Maj</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -141,8 +151,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -155,13 +197,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -493,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1062,4 +1136,366 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.6976170000000002</v>
+      </c>
+      <c r="C2">
+        <v>5.1160110000000003</v>
+      </c>
+      <c r="D2">
+        <v>2.5836920000000001</v>
+      </c>
+      <c r="E2">
+        <v>3.5727039999999999</v>
+      </c>
+      <c r="F2">
+        <v>1.2141459999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.77194280000000004</v>
+      </c>
+      <c r="I2">
+        <v>2.6835499999999999</v>
+      </c>
+      <c r="J2">
+        <v>3.4245899999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3">
+        <v>5.9833660000000002</v>
+      </c>
+      <c r="C3">
+        <v>6.8021890000000003</v>
+      </c>
+      <c r="D3">
+        <v>4.8734159999999997</v>
+      </c>
+      <c r="E3">
+        <v>4.6191040000000001</v>
+      </c>
+      <c r="F3">
+        <v>3.0554410000000001</v>
+      </c>
+      <c r="G3">
+        <v>3.470742</v>
+      </c>
+      <c r="I3">
+        <v>5.9445309999999996</v>
+      </c>
+      <c r="J3">
+        <v>7.798718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4">
+        <v>4.8562900000000004</v>
+      </c>
+      <c r="C4">
+        <v>7.3009339999999998</v>
+      </c>
+      <c r="D4">
+        <v>2.1017199999999998</v>
+      </c>
+      <c r="E4">
+        <v>2.3036850000000002</v>
+      </c>
+      <c r="F4">
+        <v>1.6372910000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.8990937000000001</v>
+      </c>
+      <c r="I4">
+        <v>2.4005830000000001</v>
+      </c>
+      <c r="J4">
+        <v>4.6240430000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5">
+        <v>5.1895540000000002</v>
+      </c>
+      <c r="C5">
+        <v>4.0966670000000001</v>
+      </c>
+      <c r="D5">
+        <v>1.2231190000000001</v>
+      </c>
+      <c r="E5">
+        <v>2.7592120000000002</v>
+      </c>
+      <c r="F5">
+        <v>1.3234779999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.90024599999999999</v>
+      </c>
+      <c r="I5">
+        <v>2.244335</v>
+      </c>
+      <c r="J5">
+        <v>3.4030010000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6">
+        <v>7.8058969999999999</v>
+      </c>
+      <c r="C6">
+        <v>9.8813080000000006</v>
+      </c>
+      <c r="D6">
+        <v>3.295963</v>
+      </c>
+      <c r="E6">
+        <v>2.7533810000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.5207079999999999</v>
+      </c>
+      <c r="G6">
+        <v>1.2233965</v>
+      </c>
+      <c r="I6">
+        <v>3.1488049999999999</v>
+      </c>
+      <c r="J6">
+        <v>6.4823760000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1.3195129999999999</v>
+      </c>
+      <c r="C10">
+        <v>1.3807499999999999</v>
+      </c>
+      <c r="D10">
+        <v>1.2343390000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.136107</v>
+      </c>
+      <c r="F10">
+        <v>1.446693</v>
+      </c>
+      <c r="G10">
+        <v>1.804721</v>
+      </c>
+      <c r="I10">
+        <v>1.1794290000000001</v>
+      </c>
+      <c r="J10">
+        <v>1.656158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1.8292716544000001</v>
+      </c>
+      <c r="C13">
+        <v>1.8292716544000001</v>
+      </c>
+      <c r="D13">
+        <v>1.8292716544000001</v>
+      </c>
+      <c r="E13">
+        <v>1.8292716544000001</v>
+      </c>
+      <c r="F13">
+        <v>1.829271654</v>
+      </c>
+      <c r="G13">
+        <v>1.829271654</v>
+      </c>
+      <c r="I13">
+        <v>1.829271654</v>
+      </c>
+      <c r="J13">
+        <v>1.829271654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.1735912181</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.13551879510000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.17288257570000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.18167768449999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.578754675</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.31746251800000003</v>
+      </c>
+      <c r="I14">
+        <v>0.23706772000000001</v>
+      </c>
+      <c r="J14">
+        <v>0.16447700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.6056979999999995E-4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6.1461459999999997E-4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8.0485439999999995E-4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.5513710000000005E-4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.0914919999999999E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.715823E-3</v>
+      </c>
+      <c r="I15">
+        <v>1.0041570000000001E-3</v>
+      </c>
+      <c r="J15">
+        <v>7.7564330000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>-3550.2406000000001</v>
+      </c>
+      <c r="C18">
+        <v>-9626.6504000000004</v>
+      </c>
+      <c r="D18">
+        <v>-3201.4602</v>
+      </c>
+      <c r="E18">
+        <v>-4959.9970999999996</v>
+      </c>
+      <c r="F18">
+        <v>-847.03869999999995</v>
+      </c>
+      <c r="G18">
+        <v>-1307.6061999999999</v>
+      </c>
+      <c r="I18">
+        <v>-30556.09</v>
+      </c>
+      <c r="J18">
+        <v>-29135.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/pkg/Result/beetle_mammal.xlsx
+++ b/pkg/Result/beetle_mammal.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="0" windowWidth="25360" windowHeight="14220" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="11460" yWindow="2200" windowWidth="25360" windowHeight="14220" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Beetle" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="59">
   <si>
     <t>Q</t>
   </si>
@@ -90,6 +90,114 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>***************************************************************************</t>
+  </si>
+  <si>
+    <t>---------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>according</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>AIC:</t>
+  </si>
+  <si>
+    <t>LG+I+G</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Size:</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Interval:</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>deltaAIC</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>AICw</t>
+  </si>
+  <si>
+    <t>LG+G</t>
+  </si>
+  <si>
+    <t>WAG+I+G</t>
+  </si>
+  <si>
+    <t>WAG+G</t>
+  </si>
+  <si>
+    <t>JTT+I+G</t>
+  </si>
+  <si>
+    <t>RtREV+I+G</t>
+  </si>
+  <si>
+    <t>lnL(neg)</t>
+  </si>
+  <si>
+    <t>Gene1-aats</t>
+  </si>
+  <si>
+    <t>New+max</t>
+  </si>
+  <si>
+    <t>LG+I+G+F</t>
+  </si>
+  <si>
+    <t>LG+G+F</t>
+  </si>
+  <si>
+    <t>RtREV+I+G+F</t>
+  </si>
+  <si>
+    <t>JTT+G</t>
+  </si>
+  <si>
+    <t>LG+I</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>RtREV+G</t>
+  </si>
+  <si>
+    <t>RtREV+G+F</t>
+  </si>
+  <si>
+    <t>ef1a</t>
+  </si>
+  <si>
+    <t>Dayhoff+I+G</t>
+  </si>
+  <si>
+    <t>DCMut+I+G</t>
+  </si>
+  <si>
+    <t>whole</t>
   </si>
 </sst>
 </file>
@@ -151,8 +259,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -197,7 +329,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -217,6 +349,18 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -236,6 +380,18 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1140,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1487,6 +1643,1459 @@
       </c>
       <c r="J18">
         <v>-29135.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>7569.57</v>
+      </c>
+      <c r="D29">
+        <v>0.87</v>
+      </c>
+      <c r="E29">
+        <v>3717.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>3.87</v>
+      </c>
+      <c r="C30">
+        <v>7573.44</v>
+      </c>
+      <c r="D30">
+        <v>0.13</v>
+      </c>
+      <c r="E30">
+        <v>3720.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>15.27</v>
+      </c>
+      <c r="C31">
+        <v>7584.84</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3725.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>18.25</v>
+      </c>
+      <c r="C32">
+        <v>7587.82</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>3727.91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>59.52</v>
+      </c>
+      <c r="C33">
+        <v>7629.09</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3747.55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>60.53</v>
+      </c>
+      <c r="C34">
+        <v>7630.1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>3748.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>3617.4722000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>23202.03</v>
+      </c>
+      <c r="D46">
+        <v>0.87</v>
+      </c>
+      <c r="E46">
+        <v>11534.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>3.84</v>
+      </c>
+      <c r="C47">
+        <v>23205.87</v>
+      </c>
+      <c r="D47">
+        <v>0.13</v>
+      </c>
+      <c r="E47">
+        <v>11516.94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <v>53.79</v>
+      </c>
+      <c r="C48">
+        <v>23255.83</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>11561.91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>55.3</v>
+      </c>
+      <c r="C49">
+        <v>23257.33</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>11543.67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>148.77000000000001</v>
+      </c>
+      <c r="C50">
+        <v>23350.81</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>11589.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
+        <v>11488.4054</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>6522.01</v>
+      </c>
+      <c r="D62">
+        <v>0.84</v>
+      </c>
+      <c r="E62">
+        <v>3194.01</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C63">
+        <v>6526.87</v>
+      </c>
+      <c r="D63">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E63">
+        <v>3197.43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64">
+        <v>5.33</v>
+      </c>
+      <c r="C64">
+        <v>6527.34</v>
+      </c>
+      <c r="D64">
+        <v>0.06</v>
+      </c>
+      <c r="E64">
+        <v>3196.67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65">
+        <v>8.16</v>
+      </c>
+      <c r="C65">
+        <v>6530.18</v>
+      </c>
+      <c r="D65">
+        <v>0.01</v>
+      </c>
+      <c r="E65">
+        <v>3179.09</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66">
+        <v>9.76</v>
+      </c>
+      <c r="C66">
+        <v>6531.78</v>
+      </c>
+      <c r="D66">
+        <v>0.01</v>
+      </c>
+      <c r="E66">
+        <v>3199.89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67">
+        <v>12.5</v>
+      </c>
+      <c r="C67">
+        <v>6534.51</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>3182.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1">
+        <v>3224.2323999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>9830.0400000000009</v>
+      </c>
+      <c r="D79">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E79">
+        <v>4848.0200000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80">
+        <v>0.49</v>
+      </c>
+      <c r="C80">
+        <v>9830.5300000000007</v>
+      </c>
+      <c r="D80">
+        <v>0.44</v>
+      </c>
+      <c r="E80">
+        <v>4849.26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="C81">
+        <v>9869.8799999999992</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>4868.9399999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82">
+        <v>40.9</v>
+      </c>
+      <c r="C82">
+        <v>9870.93</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>4868.47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83">
+        <v>41.83</v>
+      </c>
+      <c r="C83">
+        <v>9871.86</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>4849.93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="1">
+        <v>4906.2404999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>2509.1999999999998</v>
+      </c>
+      <c r="D95">
+        <v>0.67</v>
+      </c>
+      <c r="E95">
+        <v>1188.5999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96">
+        <v>1.39</v>
+      </c>
+      <c r="C96">
+        <v>2510.6</v>
+      </c>
+      <c r="D96">
+        <v>0.33</v>
+      </c>
+      <c r="E96">
+        <v>1188.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97">
+        <v>14.04</v>
+      </c>
+      <c r="C97">
+        <v>2523.25</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1195.6199999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98">
+        <v>14.77</v>
+      </c>
+      <c r="C98">
+        <v>2523.98</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1194.99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99">
+        <v>15.16</v>
+      </c>
+      <c r="C99">
+        <v>2524.36</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1196.18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="1">
+        <v>937.83939999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>3994.32</v>
+      </c>
+      <c r="D111">
+        <v>0.69</v>
+      </c>
+      <c r="E111">
+        <v>1930.16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C112">
+        <v>3996.35</v>
+      </c>
+      <c r="D112">
+        <v>0.25</v>
+      </c>
+      <c r="E112">
+        <v>1931.18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113">
+        <v>5.12</v>
+      </c>
+      <c r="C113">
+        <v>3999.44</v>
+      </c>
+      <c r="D113">
+        <v>0.05</v>
+      </c>
+      <c r="E113">
+        <v>1913.72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114">
+        <v>9.31</v>
+      </c>
+      <c r="C114">
+        <v>4003.63</v>
+      </c>
+      <c r="D114">
+        <v>0.01</v>
+      </c>
+      <c r="E114">
+        <v>1935.82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115">
+        <v>10.38</v>
+      </c>
+      <c r="C115">
+        <v>4004.7</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>1936.35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116">
+        <v>11.94</v>
+      </c>
+      <c r="C116">
+        <v>4006.27</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>1918.13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1566.8992000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" t="s">
+        <v>32</v>
+      </c>
+      <c r="C123">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>35</v>
+      </c>
+      <c r="B126" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>5309.84</v>
+      </c>
+      <c r="D128">
+        <v>0.99</v>
+      </c>
+      <c r="E128">
+        <v>2587.92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129">
+        <v>10.95</v>
+      </c>
+      <c r="C129">
+        <v>5320.8</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>2574.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130">
+        <v>15.76</v>
+      </c>
+      <c r="C130">
+        <v>5325.61</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>2595.8000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>47</v>
+      </c>
+      <c r="B131">
+        <v>15.78</v>
+      </c>
+      <c r="C131">
+        <v>5325.63</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>2576.81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>57</v>
+      </c>
+      <c r="B132">
+        <v>16.41</v>
+      </c>
+      <c r="C132">
+        <v>5326.25</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>2596.13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133">
+        <v>24.31</v>
+      </c>
+      <c r="C133">
+        <v>5334.15</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>2600.08</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E134" s="1">
+        <v>2180.3382999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>31</v>
+      </c>
+      <c r="B140" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>33</v>
+      </c>
+      <c r="B141" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>35</v>
+      </c>
+      <c r="B143" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" t="s">
+        <v>37</v>
+      </c>
+      <c r="D143" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>47</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>59623.7</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>29725.85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>30</v>
+      </c>
+      <c r="B146">
+        <v>14.93</v>
+      </c>
+      <c r="C146">
+        <v>59638.63</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>29752.31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147">
+        <v>167.01</v>
+      </c>
+      <c r="C147">
+        <v>59790.71</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>29810.36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>39</v>
+      </c>
+      <c r="B148">
+        <v>184.18</v>
+      </c>
+      <c r="C148">
+        <v>59807.88</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>29837.94</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>49</v>
+      </c>
+      <c r="B149">
+        <v>201.8</v>
+      </c>
+      <c r="C149">
+        <v>59825.49</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>29826.75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E150" s="1">
+        <v>29135.1535</v>
       </c>
     </row>
   </sheetData>
